--- a/InputData/trans/SYNoEVC/Start Year Number of EV Chargers.xlsx
+++ b/InputData/trans/SYNoEVC/Start Year Number of EV Chargers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\SYNoEVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFB0A12-A899-4D93-B194-4DFB564BB149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F02A167-1F89-4FD5-AE13-9CC7B683C773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -653,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -2462,8 +2462,8 @@
   </sheetPr>
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AE2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2476,220 +2476,61 @@
         <v>32</v>
       </c>
       <c r="B1">
-        <v>2021</v>
-      </c>
-      <c r="C1" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D1">
-        <v>2023</v>
-      </c>
-      <c r="E1" s="3">
-        <v>2024</v>
-      </c>
-      <c r="F1">
-        <v>2025</v>
-      </c>
-      <c r="G1" s="3">
-        <v>2026</v>
-      </c>
-      <c r="H1">
-        <v>2027</v>
-      </c>
-      <c r="I1" s="3">
-        <v>2028</v>
-      </c>
-      <c r="J1">
-        <v>2029</v>
-      </c>
-      <c r="K1" s="3">
-        <v>2030</v>
-      </c>
-      <c r="L1">
-        <v>2031</v>
-      </c>
-      <c r="M1" s="3">
-        <v>2032</v>
-      </c>
-      <c r="N1">
-        <v>2033</v>
-      </c>
-      <c r="O1" s="3">
-        <v>2034</v>
-      </c>
-      <c r="P1">
-        <v>2035</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>2036</v>
-      </c>
-      <c r="R1">
-        <v>2037</v>
-      </c>
-      <c r="S1" s="3">
-        <v>2038</v>
-      </c>
-      <c r="T1">
-        <v>2039</v>
-      </c>
-      <c r="U1" s="3">
-        <v>2040</v>
-      </c>
-      <c r="V1">
-        <v>2041</v>
-      </c>
-      <c r="W1" s="3">
-        <v>2042</v>
-      </c>
-      <c r="X1">
-        <v>2043</v>
-      </c>
-      <c r="Y1" s="3">
-        <v>2044</v>
-      </c>
-      <c r="Z1">
-        <v>2045</v>
-      </c>
-      <c r="AA1" s="3">
-        <v>2046</v>
-      </c>
-      <c r="AB1">
-        <v>2047</v>
-      </c>
-      <c r="AC1" s="3">
-        <v>2048</v>
-      </c>
-      <c r="AD1">
-        <v>2049</v>
-      </c>
-      <c r="AE1" s="3">
-        <v>2050</v>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AE1" s="3"/>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="2">
-        <f>Calculations!C11</f>
+        <f>Calculations!B8</f>
         <v>137902</v>
       </c>
-      <c r="C2" s="2">
-        <f>Calculations!D11</f>
-        <v>137902</v>
-      </c>
-      <c r="D2" s="2">
-        <f>Calculations!E11</f>
-        <v>251762.11802742296</v>
-      </c>
-      <c r="E2" s="2">
-        <f>Calculations!F11</f>
-        <v>364830.05288038554</v>
-      </c>
-      <c r="F2" s="2">
-        <f>Calculations!G11</f>
-        <v>479244.6991299307</v>
-      </c>
-      <c r="G2" s="2">
-        <f>Calculations!H11</f>
-        <v>595164.49341096531</v>
-      </c>
-      <c r="H2" s="2">
-        <f>Calculations!I11</f>
-        <v>647672.73524960212</v>
-      </c>
-      <c r="I2" s="2">
-        <f>Calculations!J11</f>
-        <v>702002.99838949763</v>
-      </c>
-      <c r="J2" s="2">
-        <f>Calculations!K11</f>
-        <v>758234.50114811282</v>
-      </c>
-      <c r="K2" s="2">
-        <f>Calculations!L11</f>
-        <v>816525.68016030989</v>
-      </c>
-      <c r="L2" s="2">
-        <f>Calculations!M11</f>
-        <v>876955.75374354981</v>
-      </c>
-      <c r="M2" s="2">
-        <f>Calculations!N11</f>
-        <v>914887.82517211698</v>
-      </c>
-      <c r="N2" s="2">
-        <f>Calculations!O11</f>
-        <v>952819.89660069905</v>
-      </c>
-      <c r="O2" s="2">
-        <f>Calculations!P11</f>
-        <v>990751.96802926622</v>
-      </c>
-      <c r="P2" s="2">
-        <f>Calculations!Q11</f>
-        <v>1028684.0394578334</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>Calculations!R11</f>
-        <v>1066616.1108864155</v>
-      </c>
-      <c r="R2" s="2">
-        <f>Calculations!S11</f>
-        <v>1104548.1823149826</v>
-      </c>
-      <c r="S2" s="2">
-        <f>Calculations!T11</f>
-        <v>1142480.2537435498</v>
-      </c>
-      <c r="T2" s="2">
-        <f>Calculations!U11</f>
-        <v>1180412.325172117</v>
-      </c>
-      <c r="U2" s="2">
-        <f>Calculations!V11</f>
-        <v>1218344.3966006991</v>
-      </c>
-      <c r="V2" s="2">
-        <f>Calculations!W11</f>
-        <v>1256276.4680292662</v>
-      </c>
-      <c r="W2" s="2">
-        <f>Calculations!X11</f>
-        <v>1294208.5394578334</v>
-      </c>
-      <c r="X2" s="2">
-        <f>Calculations!Y11</f>
-        <v>1332140.6108864155</v>
-      </c>
-      <c r="Y2" s="2">
-        <f>Calculations!Z11</f>
-        <v>1370072.6823149826</v>
-      </c>
-      <c r="Z2" s="2">
-        <f>Calculations!AA11</f>
-        <v>1408004.7537435498</v>
-      </c>
-      <c r="AA2" s="2">
-        <f>Calculations!AB11</f>
-        <v>1445936.825172117</v>
-      </c>
-      <c r="AB2" s="2">
-        <f>Calculations!AC11</f>
-        <v>1483868.8966006991</v>
-      </c>
-      <c r="AC2" s="2">
-        <f>Calculations!AD11</f>
-        <v>1521800.9680292662</v>
-      </c>
-      <c r="AD2" s="2">
-        <f>Calculations!AE11</f>
-        <v>1559733.0394578334</v>
-      </c>
-      <c r="AE2" s="2">
-        <f>Calculations!AF11</f>
-        <v>1597665.1108864155</v>
-      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
   </sheetData>

--- a/InputData/trans/SYNoEVC/Start Year Number of EV Chargers.xlsx
+++ b/InputData/trans/SYNoEVC/Start Year Number of EV Chargers.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabian.hein\Desktop\EPS_new\transport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\SYNoEVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{CBBCD51A-B1E9-4B6B-ABCF-761E64680719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{485CAF96-0093-4064-9334-63292AAC8852}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6755319-023A-4C34-B55F-2039EE0FD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="SYNoEVC" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="income">#REF!</definedName>
     <definedName name="Range_EV">#REF!</definedName>
@@ -85,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,13 +147,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -183,49 +176,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="Calculations"/>
-      <sheetName val="Calculations Green Deal"/>
-      <sheetName val="BNoEVC"/>
-      <sheetName val="BNoEVC_Green Deal"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2">
-            <v>299178</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Calculations"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,62 +447,62 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="4">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -571,208 +521,33 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1">
         <v>2021</v>
       </c>
-      <c r="C1" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D1">
-        <v>2023</v>
-      </c>
-      <c r="E1" s="3">
-        <v>2024</v>
-      </c>
-      <c r="F1">
-        <v>2025</v>
-      </c>
-      <c r="G1" s="3">
-        <v>2026</v>
-      </c>
-      <c r="H1">
-        <v>2027</v>
-      </c>
-      <c r="I1" s="3">
-        <v>2028</v>
-      </c>
-      <c r="J1">
-        <v>2029</v>
-      </c>
-      <c r="K1" s="3">
-        <v>2030</v>
-      </c>
-      <c r="L1">
-        <v>2031</v>
-      </c>
-      <c r="M1" s="3">
-        <v>2032</v>
-      </c>
-      <c r="N1">
-        <v>2033</v>
-      </c>
-      <c r="O1" s="3">
-        <v>2034</v>
-      </c>
-      <c r="P1">
-        <v>2035</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>2036</v>
-      </c>
-      <c r="R1">
-        <v>2037</v>
-      </c>
-      <c r="S1" s="3">
-        <v>2038</v>
-      </c>
-      <c r="T1">
-        <v>2039</v>
-      </c>
-      <c r="U1" s="3">
-        <v>2040</v>
-      </c>
-      <c r="V1">
-        <v>2041</v>
-      </c>
-      <c r="W1" s="3">
-        <v>2042</v>
-      </c>
-      <c r="X1">
-        <v>2043</v>
-      </c>
-      <c r="Y1" s="3">
-        <v>2044</v>
-      </c>
-      <c r="Z1">
-        <v>2045</v>
-      </c>
-      <c r="AA1" s="3">
-        <v>2046</v>
-      </c>
-      <c r="AB1">
-        <v>2047</v>
-      </c>
-      <c r="AC1" s="3">
-        <v>2048</v>
-      </c>
-      <c r="AD1">
-        <v>2049</v>
-      </c>
-      <c r="AE1" s="3">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <f>[1]Calculations!B2</f>
         <v>299178</v>
       </c>
-      <c r="C2" s="2">
-        <v>474383.5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>649589</v>
-      </c>
-      <c r="E2" s="2">
-        <v>824794.5</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1400000</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1800000</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2200000</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2600000</v>
-      </c>
-      <c r="K2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="L2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="M2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="N2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="O2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="P2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="R2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="S2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="T2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="U2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="V2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="W2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="X2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="AF2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -780,6 +555,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aabc5cd2cd094c10559845ba515387e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="797afa85599b0f8981d985a9380993ae" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -1008,34 +803,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C284D42-9FE9-4082-8DB3-5E07118AF747}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22EF3191-CA2A-4543-876B-07F8616C1315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A45FF092-A448-432E-BA07-53996590F143}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A45FF092-A448-432E-BA07-53996590F143}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22EF3191-CA2A-4543-876B-07F8616C1315}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C284D42-9FE9-4082-8DB3-5E07118AF747}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>